--- a/电签系统评估/法大大/法大大20220520.xlsx
+++ b/电签系统评估/法大大/法大大20220520.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\关宠\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shixiaolin/Documents/git/transfer/电签系统评估/法大大/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF627C4-1EFB-454F-BB5D-B6430B2DD2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941B42FF-D2AD-2B4E-8A7C-C8D7C3EA4598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="372" windowWidth="18396" windowHeight="12132" xr2:uid="{13850604-592A-394E-9E6D-CEE1130DC802}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22280" windowHeight="25200" activeTab="1" xr2:uid="{13850604-592A-394E-9E6D-CEE1130DC802}"/>
   </bookViews>
   <sheets>
     <sheet name="Feature" sheetId="1" r:id="rId1"/>
     <sheet name="Cost" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,8 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>法大大</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -239,14 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不支持直接通过系统解约，不能加盖作废章，需要签署作废协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>规划中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -262,20 +257,20 @@
     <t>法大大私有云</t>
   </si>
   <si>
-    <t>支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">              支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不支持</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>第二年15%</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>不√直接通过系统解约，不能加盖作废章，需要签署作废协议</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              √</t>
+  </si>
+  <si>
+    <t>不√</t>
   </si>
 </sst>
 </file>
@@ -283,7 +278,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -406,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -549,21 +544,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -577,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,16 +573,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -620,33 +606,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -658,21 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -996,411 +976,411 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="32.1796875" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="18" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>68</v>
+      <c r="D2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="33" customHeight="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="2:5" ht="16.95" customHeight="1">
-      <c r="B4" s="17" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="2:5" ht="17" customHeight="1">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="17"/>
+    <row r="5" spans="2:5" ht="17">
+      <c r="B5" s="21"/>
       <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="17"/>
+    <row r="6" spans="2:5" ht="17">
+      <c r="B6" s="21"/>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="17"/>
+    <row r="7" spans="2:5" ht="17">
+      <c r="B7" s="21"/>
       <c r="C7" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="17"/>
+    <row r="8" spans="2:5" ht="17">
+      <c r="B8" s="21"/>
       <c r="C8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="17"/>
+    <row r="9" spans="2:5" ht="17">
+      <c r="B9" s="21"/>
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:5" ht="17">
+      <c r="B10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="18"/>
+    <row r="11" spans="2:5" ht="17">
+      <c r="B11" s="23"/>
       <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="18"/>
+    <row r="12" spans="2:5" ht="17">
+      <c r="B12" s="23"/>
       <c r="C12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="18"/>
+    <row r="13" spans="2:5" ht="17">
+      <c r="B13" s="23"/>
       <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="46.8">
-      <c r="B14" s="18"/>
+    <row r="14" spans="2:5" ht="68">
+      <c r="B14" s="23"/>
       <c r="C14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="18"/>
+      <c r="D14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="17">
+      <c r="B15" s="23"/>
       <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17">
+      <c r="B16" s="23"/>
       <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="17">
+      <c r="B17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="17">
+      <c r="B18" s="21"/>
       <c r="C18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="17">
+      <c r="B19" s="21"/>
       <c r="C19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="17">
+      <c r="B20" s="21"/>
       <c r="C20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="17">
+      <c r="B21" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="17">
+      <c r="B22" s="21"/>
       <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="17">
+      <c r="B23" s="21"/>
       <c r="C23" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="17">
+      <c r="B24" s="21"/>
       <c r="C24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="17">
+      <c r="B25" s="21"/>
       <c r="C25" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="17"/>
+    <row r="26" spans="2:5" ht="17">
+      <c r="B26" s="21"/>
       <c r="C26" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="17">
+      <c r="B27" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="18"/>
+        <v>68</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="17">
+      <c r="B28" s="23"/>
       <c r="C28" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="17">
+      <c r="B29" s="24"/>
       <c r="C29" s="12" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="17">
+      <c r="B30" s="23" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="18"/>
+    <row r="31" spans="2:5" ht="17">
+      <c r="B31" s="23"/>
       <c r="C31" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="18"/>
+    <row r="32" spans="2:5" ht="17">
+      <c r="B32" s="23"/>
       <c r="C32" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="15"/>
+    <row r="33" spans="2:5" ht="17">
+      <c r="B33" s="24"/>
       <c r="C33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="2:5" ht="17">
       <c r="B34" s="13" t="s">
         <v>38</v>
       </c>
@@ -1408,100 +1388,100 @@
         <v>39</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="17">
+      <c r="B35" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="17">
+      <c r="B36" s="21"/>
       <c r="C36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="17">
+      <c r="B37" s="21"/>
       <c r="C37" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="17">
+      <c r="B38" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="17">
+      <c r="B39" s="24"/>
       <c r="C39" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="17">
+      <c r="B40" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="17">
+      <c r="B41" s="25"/>
       <c r="C41" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="30">
@@ -1512,19 +1492,14 @@
         <v>2</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B4:B9"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="B40:B41"/>
@@ -1533,6 +1508,11 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B33"/>
     <mergeCell ref="B35:B37"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1544,24 +1524,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="31.95" customHeight="1">
+    <row r="2" spans="2:5" ht="32" customHeight="1">
       <c r="C2" s="7"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="2:5">
       <c r="D3" s="1" t="s">
@@ -1572,7 +1552,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1586,7 +1566,7 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="26"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
@@ -1594,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1611,7 +1591,7 @@
         <v>14980</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" ht="17">
       <c r="B7" s="8" t="s">
         <v>55</v>
       </c>
